--- a/AAII_Financials/Quarterly/JXN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JXN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>JXN</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -666,9 +666,10 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -699,13 +700,13 @@
         <v>44196</v>
       </c>
       <c r="H7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="J7" s="2">
         <v>43921</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
@@ -725,16 +726,16 @@
         <v>5382200</v>
       </c>
       <c r="G8" s="3">
-        <v>3369600</v>
+        <v>659600</v>
       </c>
       <c r="H8" s="3">
+        <v>184100</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3">
         <v>4935200</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -754,16 +755,16 @@
         <v>612600</v>
       </c>
       <c r="G9" s="3">
-        <v>-1126000</v>
+        <v>-504400</v>
       </c>
       <c r="H9" s="3">
+        <v>-584300</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-876200</v>
+      </c>
+      <c r="J9" s="3">
         <v>838900</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -783,16 +784,16 @@
         <v>4769600</v>
       </c>
       <c r="G10" s="3">
-        <v>4495600</v>
+        <v>1164000</v>
       </c>
       <c r="H10" s="3">
+        <v>768400</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3">
         <v>4096300</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -951,16 +952,16 @@
         <v>1915500</v>
       </c>
       <c r="G17" s="3">
-        <v>5608800</v>
+        <v>756600</v>
       </c>
       <c r="H17" s="3">
+        <v>635200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1255700</v>
+      </c>
+      <c r="J17" s="3">
         <v>2961300</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -980,16 +981,16 @@
         <v>3466700</v>
       </c>
       <c r="G18" s="3">
-        <v>-2239200</v>
+        <v>-97000</v>
       </c>
       <c r="H18" s="3">
+        <v>-451100</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
         <v>1973900</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1022,16 +1023,16 @@
         <v>124800</v>
       </c>
       <c r="G20" s="3">
-        <v>-163400</v>
+        <v>-58800</v>
       </c>
       <c r="H20" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3">
         <v>-108000</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1080,16 +1081,16 @@
         <v>6100</v>
       </c>
       <c r="G22" s="3">
-        <v>88400</v>
+        <v>7400</v>
       </c>
       <c r="H22" s="3">
+        <v>7800</v>
+      </c>
+      <c r="I22" s="3">
+        <v>31400</v>
+      </c>
+      <c r="J22" s="3">
         <v>41800</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1109,16 +1110,16 @@
         <v>3585400</v>
       </c>
       <c r="G23" s="3">
-        <v>-2491000</v>
+        <v>-163200</v>
       </c>
       <c r="H23" s="3">
+        <v>-531900</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-3620000</v>
+      </c>
+      <c r="J23" s="3">
         <v>1824100</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1138,16 +1139,16 @@
         <v>585600</v>
       </c>
       <c r="G24" s="3">
-        <v>-853900</v>
+        <v>-273100</v>
       </c>
       <c r="H24" s="3">
+        <v>-157000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-457000</v>
+      </c>
+      <c r="J24" s="3">
         <v>33200</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1196,16 +1197,16 @@
         <v>2999800</v>
       </c>
       <c r="G26" s="3">
-        <v>-1637100</v>
+        <v>109900</v>
       </c>
       <c r="H26" s="3">
+        <v>-374900</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-3163000</v>
+      </c>
+      <c r="J26" s="3">
         <v>1790900</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1225,16 +1226,16 @@
         <v>2931500</v>
       </c>
       <c r="G27" s="3">
-        <v>-1633500</v>
+        <v>75700</v>
       </c>
       <c r="H27" s="3">
+        <v>-396600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-3109300</v>
+      </c>
+      <c r="J27" s="3">
         <v>1796700</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1370,16 +1371,16 @@
         <v>-124800</v>
       </c>
       <c r="G32" s="3">
-        <v>163400</v>
+        <v>58800</v>
       </c>
       <c r="H32" s="3">
+        <v>73000</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3">
         <v>108000</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1399,16 +1400,16 @@
         <v>2931500</v>
       </c>
       <c r="G33" s="3">
-        <v>-1633500</v>
+        <v>75700</v>
       </c>
       <c r="H33" s="3">
+        <v>-396600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-3109300</v>
+      </c>
+      <c r="J33" s="3">
         <v>1796700</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1457,16 +1458,16 @@
         <v>2931500</v>
       </c>
       <c r="G35" s="3">
-        <v>-1633500</v>
+        <v>75700</v>
       </c>
       <c r="H35" s="3">
+        <v>-396600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-3109300</v>
+      </c>
+      <c r="J35" s="3">
         <v>1796700</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1494,13 +1495,13 @@
         <v>44196</v>
       </c>
       <c r="H38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="J38" s="2">
         <v>43921</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
@@ -2579,13 +2580,13 @@
         <v>44196</v>
       </c>
       <c r="H80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="J80" s="2">
         <v>43921</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
@@ -2605,16 +2606,16 @@
         <v>2931500</v>
       </c>
       <c r="G81" s="3">
-        <v>-1633500</v>
+        <v>75700</v>
       </c>
       <c r="H81" s="3">
+        <v>-396600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-3109300</v>
+      </c>
+      <c r="J81" s="3">
         <v>1796700</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2821,10 +2822,10 @@
         <v>1344000</v>
       </c>
       <c r="G89" s="3">
-        <v>3777100</v>
+        <v>1329700</v>
       </c>
       <c r="H89" s="3">
-        <v>1092400</v>
+        <v>1045800</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2950,10 +2951,10 @@
         <v>-1499600</v>
       </c>
       <c r="G94" s="3">
-        <v>-4332600</v>
+        <v>-629800</v>
       </c>
       <c r="H94" s="3">
-        <v>6874600</v>
+        <v>-8939400</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3108,10 +3109,10 @@
         <v>-290500</v>
       </c>
       <c r="G100" s="3">
-        <v>639700</v>
+        <v>-129100</v>
       </c>
       <c r="H100" s="3">
-        <v>1670300</v>
+        <v>530500</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3166,10 +3167,10 @@
         <v>-446100</v>
       </c>
       <c r="G102" s="3">
-        <v>84200</v>
+        <v>570800</v>
       </c>
       <c r="H102" s="3">
-        <v>9637300</v>
+        <v>-7363100</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/JXN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JXN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>JXN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1635900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1459400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>259500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5382200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>659600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>184100</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="J8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="3">
         <v>4935200</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>-228200</v>
+      </c>
+      <c r="E9" s="3">
         <v>-187700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>-464700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>612600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>-504400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>-584300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>-876200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>838900</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1864100</v>
+      </c>
+      <c r="E10" s="3">
         <v>1647100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>724200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4769600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1164000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>768400</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="3">
         <v>4096300</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,8 +823,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -840,8 +853,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +885,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,8 +917,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +949,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,66 +962,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>856500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1228300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>763700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1915500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>756600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>635200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1255700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2961300</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>779400</v>
+      </c>
+      <c r="E18" s="3">
         <v>231100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-504200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3466700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-97000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-451100</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
         <v>1973900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,42 +1040,46 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E20" s="3">
         <v>26900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-27600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>124800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-58800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-73000</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
         <v>-108000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>766300</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1066,95 +1102,107 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E22" s="3">
         <v>6300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>31400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>41800</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>748300</v>
+      </c>
+      <c r="E23" s="3">
         <v>251700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-538400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3585400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-163200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-531900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3620000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1824100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>87300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-16400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-54500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>585600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-273100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-157000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-457000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>33200</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1230,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>661000</v>
+      </c>
+      <c r="E26" s="3">
         <v>268100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-483900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2999800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>109900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-374900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3163000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1790900</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>585300</v>
+      </c>
+      <c r="E27" s="3">
         <v>206200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-540000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2931500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>75700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-396600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3109300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1796700</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1326,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1358,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,66 +1422,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-26900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>27600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-124800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>58800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>73000</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
         <v>108000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>585300</v>
+      </c>
+      <c r="E33" s="3">
         <v>206200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-540000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2931500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>75700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-396600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3109300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1796700</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1518,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>585300</v>
+      </c>
+      <c r="E35" s="3">
         <v>206200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-540000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2931500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>75700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-396600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3109300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1796700</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,23 +1617,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2623000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2481800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1534600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1572600</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,8 +1647,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,8 +1679,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1619,8 +1711,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,8 +1743,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1677,8 +1775,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1706,23 +1807,26 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>72810000</v>
+      </c>
+      <c r="E47" s="3">
         <v>73061400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>73253400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>74850100</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1735,8 +1839,11 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1764,8 +1871,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1793,8 +1903,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,23 +1967,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>954000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1004600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>892500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1076100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,8 +1999,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,23 +2031,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>375484000</v>
+      </c>
+      <c r="E54" s="3">
         <v>364372500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>366657400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>355242300</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +2063,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,8 +2093,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1993,17 +2123,20 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
         <v>1601700</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,23 +2155,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>357776000</v>
+      </c>
+      <c r="E59" s="3">
         <v>345753500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>348610300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>337134500</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2051,8 +2187,11 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2080,22 +2219,25 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2649000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1068500</v>
-      </c>
-      <c r="E61" s="3">
-        <v>317700</v>
       </c>
       <c r="F61" s="3">
         <v>317700</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>317700</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2109,8 +2251,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2138,8 +2283,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,23 +2379,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>365090000</v>
+      </c>
+      <c r="E66" s="3">
         <v>354114300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>356266900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>345258400</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2254,8 +2411,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2489,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,23 +2553,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2809000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2284600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2076800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2617900</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2585,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,23 +2681,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10394000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10258200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10390500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9983900</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2713,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2745,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>585300</v>
+      </c>
+      <c r="E81" s="3">
         <v>206200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-540000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2931500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>75700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-396600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3109300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1796700</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,8 +2830,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2662,8 +2860,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3020,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2166400</v>
+      </c>
+      <c r="E89" s="3">
         <v>1429200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>803400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1344000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1329700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1045800</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,8 +3068,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2878,8 +3098,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,37 +3162,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1920100</v>
+      </c>
+      <c r="E94" s="3">
         <v>44100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2079600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1499600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-629800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8939400</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,37 +3336,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-97400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-526100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2921000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-290500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-129100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>530500</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3152,33 +3400,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>148900</v>
+      </c>
+      <c r="E102" s="3">
         <v>947200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-38000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-446100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>570800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7363100</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JXN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JXN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>JXN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,177 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>6457000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4277000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1635900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1459400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>259500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>5382200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>659600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>184100</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3">
         <v>4935200</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1028000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>336000</v>
+      </c>
+      <c r="F9" s="3">
         <v>-228200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>-187700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>-464700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>612600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>-504400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>-584300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>-876200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>838900</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>5429000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3941000</v>
+      </c>
+      <c r="F10" s="3">
         <v>1864100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1647100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>724200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>4769600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1164000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>768400</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3">
         <v>4096300</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,8 +848,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -856,8 +882,14 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,8 +920,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -920,8 +958,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -952,8 +996,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,72 +1013,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2844000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1895000</v>
+      </c>
+      <c r="F17" s="3">
         <v>856500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1228300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>763700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1915500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>756600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>635200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1255700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2961300</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3613000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2382000</v>
+      </c>
+      <c r="F18" s="3">
         <v>779400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>231100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-504200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>3466700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-97000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-451100</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>1973900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,52 +1105,60 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>24000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-13100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>26900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-27600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>124800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-58800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-73000</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
         <v>-108000</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3675000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2406000</v>
+      </c>
+      <c r="F21" s="3">
         <v>766300</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1105,104 +1177,128 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F22" s="3">
         <v>18000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>6300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>6600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>6100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>7400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>7800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>31400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>41800</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3651000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2386000</v>
+      </c>
+      <c r="F23" s="3">
         <v>748300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>251700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-538400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>3585400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-163200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-531900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3620000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1824100</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>717000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>330000</v>
+      </c>
+      <c r="F24" s="3">
         <v>87300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-16400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-54500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>585600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-273100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-157000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-457000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>33200</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,72 +1329,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2934000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2056000</v>
+      </c>
+      <c r="F26" s="3">
         <v>661000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>268100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-483900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2999800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>109900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-374900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3163000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1790900</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2903000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2025000</v>
+      </c>
+      <c r="F27" s="3">
         <v>585300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>206200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-540000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2931500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>75700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-396600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3109300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1796700</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1443,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1481,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1519,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,72 +1557,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="F32" s="3">
         <v>13100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-26900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>27600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-124800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>58800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>73000</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
         <v>108000</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2903000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2025000</v>
+      </c>
+      <c r="F33" s="3">
         <v>585300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>206200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-540000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2931500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>75700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-396600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3109300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1796700</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,77 +1671,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2903000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2025000</v>
+      </c>
+      <c r="F35" s="3">
         <v>585300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>206200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-540000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2931500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>75700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-396600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3109300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1796700</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1772,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,29 +1788,31 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5258000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2674000</v>
+      </c>
+      <c r="F41" s="3">
         <v>2623000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2481800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1534600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1572600</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,8 +1822,14 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1682,8 +1860,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1714,8 +1898,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1746,8 +1936,14 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1778,8 +1974,14 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1810,29 +2012,35 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>65884000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>68419000</v>
+      </c>
+      <c r="F47" s="3">
         <v>72810000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>73061400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>73253400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>74850100</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1842,8 +2050,14 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1874,8 +2088,14 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1906,8 +2126,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2164,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,29 +2202,35 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>981000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1343000</v>
+      </c>
+      <c r="F52" s="3">
         <v>954000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1004600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>892500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1076100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,8 +2240,14 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,29 +2278,35 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>316205000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>352641000</v>
+      </c>
+      <c r="F54" s="3">
         <v>375484000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>364372500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>366657400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>355242300</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2066,8 +2316,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2336,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,8 +2352,10 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2126,23 +2386,29 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
         <v>1601700</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2158,29 +2424,35 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>297972000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>334931000</v>
+      </c>
+      <c r="F59" s="3">
         <v>357776000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>345753500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>348610300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>337134500</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,8 +2462,14 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2222,29 +2500,35 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2634000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2640000</v>
+      </c>
+      <c r="F61" s="3">
         <v>2649000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1068500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>317700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>317700</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2254,8 +2538,14 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2286,8 +2576,14 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2614,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2652,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,29 +2690,35 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>306642000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>343067000</v>
+      </c>
+      <c r="F66" s="3">
         <v>365090000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>354114300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>356266900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>345258400</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2728,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2748,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2782,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,8 +2820,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2524,8 +2858,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,29 +2896,35 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7635000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>4782000</v>
+      </c>
+      <c r="F72" s="3">
         <v>2809000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>2284600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>2076800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>2617900</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2588,8 +2934,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2972,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +3010,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,29 +3048,35 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9563000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>9574000</v>
+      </c>
+      <c r="F76" s="3">
         <v>10394000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>10258200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>10390500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>9983900</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2716,8 +3086,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,77 +3124,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2903000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2025000</v>
+      </c>
+      <c r="F81" s="3">
         <v>585300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>206200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-540000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2931500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>75700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-396600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3109300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1796700</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,8 +3225,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2863,8 +3259,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3297,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3335,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3373,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3411,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,40 +3449,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1236000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>860000</v>
+      </c>
+      <c r="F89" s="3">
         <v>2166400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1429200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>803400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1344000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1329700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1045800</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,8 +3507,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3101,8 +3541,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3579,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,40 +3617,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2817000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-202000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1920100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>44100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>2079600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1499600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-629800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-8939400</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,16 +3675,18 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-52000</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3243,8 +3709,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3747,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3785,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,40 +3823,52 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1467000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-609000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-97400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-526100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-2921000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-290500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-129100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>530500</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3403,36 +3899,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2586000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>49000</v>
+      </c>
+      <c r="F102" s="3">
         <v>148900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>947200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-38000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-446100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>570800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-7363100</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JXN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JXN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>JXN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,201 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3968000</v>
+      </c>
+      <c r="F8" s="3">
         <v>6457000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>4277000</v>
       </c>
-      <c r="F8" s="3">
-        <v>1635900</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1459400</v>
-      </c>
       <c r="H8" s="3">
+        <v>1738000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1548000</v>
+      </c>
+      <c r="J8" s="3">
         <v>259500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>5382200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>659600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>184100</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3">
         <v>4935200</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>-665000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>419000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1028000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>336000</v>
       </c>
-      <c r="F9" s="3">
-        <v>-228200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>-187700</v>
-      </c>
       <c r="H9" s="3">
+        <v>-232000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-188000</v>
+      </c>
+      <c r="J9" s="3">
         <v>-464700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>612600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>-504400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>-584300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>-876200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>838900</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3549000</v>
+      </c>
+      <c r="F10" s="3">
         <v>5429000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>3941000</v>
       </c>
-      <c r="F10" s="3">
-        <v>1864100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1647100</v>
-      </c>
       <c r="H10" s="3">
+        <v>1970000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1736000</v>
+      </c>
+      <c r="J10" s="3">
         <v>724200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>4769600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1164000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>768400</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3">
         <v>4096300</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -850,8 +874,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -888,8 +914,14 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -926,8 +958,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -964,8 +1002,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1002,8 +1046,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1015,84 +1065,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>532000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1966000</v>
+      </c>
+      <c r="F17" s="3">
         <v>2844000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1895000</v>
       </c>
-      <c r="F17" s="3">
-        <v>856500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1228300</v>
-      </c>
       <c r="H17" s="3">
+        <v>959000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1317000</v>
+      </c>
+      <c r="J17" s="3">
         <v>763700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1915500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>756600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>635200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1255700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2961300</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2002000</v>
+      </c>
+      <c r="F18" s="3">
         <v>3613000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>2382000</v>
       </c>
-      <c r="F18" s="3">
-        <v>779400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>231100</v>
-      </c>
       <c r="H18" s="3">
+        <v>779000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>231000</v>
+      </c>
+      <c r="J18" s="3">
         <v>-504200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>3466700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-97000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-451100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
         <v>1973900</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1107,63 +1171,71 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>54000</v>
+      </c>
+      <c r="F20" s="3">
         <v>62000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>24000</v>
       </c>
-      <c r="F20" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>26900</v>
-      </c>
       <c r="H20" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>27000</v>
+      </c>
+      <c r="J20" s="3">
         <v>-27600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>124800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-58800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-73000</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
         <v>-108000</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2056000</v>
+      </c>
+      <c r="F21" s="3">
         <v>3675000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>2406000</v>
       </c>
-      <c r="F21" s="3">
-        <v>766300</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+      <c r="H21" s="3">
+        <v>766000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1183,122 +1255,146 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="F22" s="3">
         <v>24000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>20000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>18000</v>
       </c>
-      <c r="G22" s="3">
-        <v>6300</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J22" s="3">
         <v>6600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>6100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>7400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>7800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>31400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>41800</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-953000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2027000</v>
+      </c>
+      <c r="F23" s="3">
         <v>3651000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2386000</v>
       </c>
-      <c r="F23" s="3">
-        <v>748300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>251700</v>
-      </c>
       <c r="H23" s="3">
+        <v>748000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>252000</v>
+      </c>
+      <c r="J23" s="3">
         <v>-538400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>3585400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-163200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-531900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-3620000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1824100</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-235000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>559000</v>
+      </c>
+      <c r="F24" s="3">
         <v>717000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>330000</v>
       </c>
-      <c r="F24" s="3">
-        <v>87300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-16400</v>
-      </c>
       <c r="H24" s="3">
+        <v>87000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="J24" s="3">
         <v>-54500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>585600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-273100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-157000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-457000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>33200</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1335,84 +1431,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-718000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1468000</v>
+      </c>
+      <c r="F26" s="3">
         <v>2934000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>2056000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>661000</v>
       </c>
-      <c r="G26" s="3">
-        <v>268100</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>268000</v>
+      </c>
+      <c r="J26" s="3">
         <v>-483900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>2999800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>109900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-374900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3163000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1790900</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-710000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1479000</v>
+      </c>
+      <c r="F27" s="3">
         <v>2903000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2025000</v>
       </c>
-      <c r="F27" s="3">
-        <v>585300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>206200</v>
-      </c>
       <c r="H27" s="3">
+        <v>585000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>206000</v>
+      </c>
+      <c r="J27" s="3">
         <v>-540000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>2931500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>75700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-396600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3109300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1796700</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1449,8 +1563,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1487,8 +1607,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1525,8 +1651,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1563,84 +1695,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-62000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-24000</v>
       </c>
-      <c r="F32" s="3">
-        <v>13100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-26900</v>
-      </c>
       <c r="H32" s="3">
+        <v>13000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="J32" s="3">
         <v>27600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-124800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>58800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>73000</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
         <v>108000</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-710000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1479000</v>
+      </c>
+      <c r="F33" s="3">
         <v>2903000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2025000</v>
       </c>
-      <c r="F33" s="3">
-        <v>585300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>206200</v>
-      </c>
       <c r="H33" s="3">
+        <v>585000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>206000</v>
+      </c>
+      <c r="J33" s="3">
         <v>-540000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>2931500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>75700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-396600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3109300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1796700</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1677,89 +1827,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-710000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1479000</v>
+      </c>
+      <c r="F35" s="3">
         <v>2903000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2025000</v>
       </c>
-      <c r="F35" s="3">
-        <v>585300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>206200</v>
-      </c>
       <c r="H35" s="3">
+        <v>585000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>206000</v>
+      </c>
+      <c r="J35" s="3">
         <v>-540000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>2931500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>75700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-396600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3109300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1796700</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1774,8 +1942,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1790,35 +1960,37 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4298000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5331000</v>
+      </c>
+      <c r="F41" s="3">
         <v>5258000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2674000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2623000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2481800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1534600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1572600</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1828,8 +2000,14 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1866,8 +2044,14 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1904,8 +2088,14 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1942,8 +2132,14 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1980,8 +2176,14 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2018,35 +2220,41 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>64676000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>63940000</v>
+      </c>
+      <c r="F47" s="3">
         <v>65884000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>68419000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>72810000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>73061400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>73253400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>74850100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2056,8 +2264,14 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2094,8 +2308,14 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2132,8 +2352,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2170,8 +2396,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2208,35 +2440,41 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>385000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>759000</v>
+      </c>
+      <c r="F52" s="3">
         <v>981000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1343000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>954000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1004600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>892500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1076100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2246,8 +2484,14 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2284,35 +2528,41 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>311058000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>302970000</v>
+      </c>
+      <c r="F54" s="3">
         <v>316205000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>352641000</v>
       </c>
-      <c r="F54" s="3">
-        <v>375484000</v>
-      </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
+        <v>375559000</v>
+      </c>
+      <c r="I54" s="3">
         <v>364372500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>366657400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>355242300</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2322,8 +2572,14 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2338,8 +2594,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2354,8 +2612,10 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2392,8 +2652,14 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2406,15 +2672,15 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
         <v>1601700</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2430,35 +2696,41 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>293068000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>284311000</v>
+      </c>
+      <c r="F59" s="3">
         <v>297972000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>334931000</v>
       </c>
-      <c r="F59" s="3">
-        <v>357776000</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
+        <v>357851000</v>
+      </c>
+      <c r="I59" s="3">
         <v>345753500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>348610300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>337134500</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2468,8 +2740,14 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2506,35 +2784,41 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2635000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2634000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>2634000</v>
+      </c>
+      <c r="G61" s="3">
         <v>2640000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2649000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1068500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>317700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>317700</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2544,8 +2828,14 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2582,8 +2872,14 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2620,8 +2916,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2658,8 +2960,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2696,35 +3004,41 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>302635000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>293996000</v>
+      </c>
+      <c r="F66" s="3">
         <v>306642000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>343067000</v>
       </c>
-      <c r="F66" s="3">
-        <v>365090000</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
+        <v>365165000</v>
+      </c>
+      <c r="I66" s="3">
         <v>354114300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>356266900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>345258400</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +3048,14 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2750,8 +3070,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2788,8 +3110,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2826,8 +3154,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2864,8 +3198,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2902,35 +3242,41 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8283000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>9065000</v>
+      </c>
+      <c r="F72" s="3">
         <v>7635000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>4782000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>2809000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>2284600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>2076800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>2617900</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2940,8 +3286,14 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2978,8 +3330,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3016,8 +3374,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3054,35 +3418,41 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8423000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>8974000</v>
+      </c>
+      <c r="F76" s="3">
         <v>9563000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>9574000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>10394000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>10258200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>10390500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>9983900</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3092,8 +3462,14 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3130,89 +3506,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-710000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1479000</v>
+      </c>
+      <c r="F81" s="3">
         <v>2903000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2025000</v>
       </c>
-      <c r="F81" s="3">
-        <v>585300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>206200</v>
-      </c>
       <c r="H81" s="3">
+        <v>585000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>206000</v>
+      </c>
+      <c r="J81" s="3">
         <v>-540000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>2931500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>75700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-396600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3109300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1796700</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3227,8 +3621,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3265,8 +3661,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3303,8 +3705,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3341,8 +3749,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3379,8 +3793,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3417,8 +3837,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3455,46 +3881,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2265000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>845000</v>
+      </c>
+      <c r="F89" s="3">
         <v>1236000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>860000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>2166400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1429200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>803400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1344000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1329700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1045800</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3509,8 +3947,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3547,8 +3987,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3585,8 +4031,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3623,46 +4075,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3843000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-146000</v>
+      </c>
+      <c r="F94" s="3">
         <v>2817000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-202000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1920100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>44100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>2079600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1499600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-629800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-8939400</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3677,25 +4141,27 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-50000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-52000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3715,8 +4181,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3753,8 +4225,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3791,8 +4269,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3829,46 +4313,58 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>538000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-624000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1467000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-609000</v>
       </c>
-      <c r="F100" s="3">
-        <v>-97400</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-526100</v>
-      </c>
       <c r="H100" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-484500</v>
+      </c>
+      <c r="J100" s="3">
         <v>-2921000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-290500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-129100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>530500</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3905,42 +4401,54 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1040000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>75000</v>
+      </c>
+      <c r="F102" s="3">
         <v>2586000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>49000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>148900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>947200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-38000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-446100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>570800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-7363100</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JXN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JXN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
   <si>
     <t>JXN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,201 +665,225 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="3">
+        <v>434000</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3">
         <v>3968000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>6457000</v>
       </c>
-      <c r="G8" s="3">
-        <v>4277000</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
+        <v>2197000</v>
+      </c>
+      <c r="J8" s="3">
         <v>1738000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1548000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>259500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5382200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>659600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>184100</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3">
         <v>4935200</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>172000</v>
+      </c>
+      <c r="F9" s="3">
         <v>-665000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>419000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1028000</v>
       </c>
-      <c r="G9" s="3">
-        <v>336000</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
+        <v>137000</v>
+      </c>
+      <c r="J9" s="3">
         <v>-232000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>-188000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>-464700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>612600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>-504400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>-584300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>-876200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>838900</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="3">
+        <v>270000</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3">
         <v>3549000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>5429000</v>
       </c>
-      <c r="G10" s="3">
-        <v>3941000</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
+        <v>2060000</v>
+      </c>
+      <c r="J10" s="3">
         <v>1970000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1736000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>724200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>4769600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1164000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>768400</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3">
         <v>4096300</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -876,8 +900,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -920,8 +946,14 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -964,8 +996,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1008,8 +1046,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1052,8 +1096,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1067,96 +1117,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-1113000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1262000</v>
+      </c>
+      <c r="F17" s="3">
         <v>532000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1966000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2844000</v>
       </c>
-      <c r="G17" s="3">
-        <v>1895000</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>-412000</v>
+      </c>
+      <c r="J17" s="3">
         <v>959000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1317000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>763700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1915500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>756600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>635200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1255700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2961300</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="3">
+        <v>1547000</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
         <v>2002000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>3613000</v>
       </c>
-      <c r="G18" s="3">
-        <v>2382000</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>2609000</v>
+      </c>
+      <c r="J18" s="3">
         <v>779000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>231000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-504200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3466700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-97000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-451100</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1973900</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1173,76 +1237,84 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D20" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3">
         <v>54000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>62000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>24000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-13000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>27000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-27600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>124800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-58800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-73000</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-108000</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
         <v>2056000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>3675000</v>
       </c>
-      <c r="G21" s="3">
-        <v>2406000</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>2633000</v>
+      </c>
+      <c r="J21" s="3">
         <v>766000</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1261,140 +1333,164 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>43000</v>
+      </c>
+      <c r="F22" s="3">
         <v>40000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>29000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>24000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>20000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>18000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>6000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>6600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>6100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>7400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>7800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>31400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>41800</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1465000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2054000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-953000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2027000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>3651000</v>
       </c>
-      <c r="G23" s="3">
-        <v>2386000</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>2613000</v>
+      </c>
+      <c r="J23" s="3">
         <v>748000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>252000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-538400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3585400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-163200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-531900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-3620000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1824100</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>245000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-558000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-235000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>559000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>717000</v>
       </c>
-      <c r="G24" s="3">
-        <v>330000</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>388000</v>
+      </c>
+      <c r="J24" s="3">
         <v>87000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-16000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-54500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>585600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-273100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-157000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-457000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>33200</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1437,96 +1533,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1220000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1496000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-718000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1468000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2934000</v>
       </c>
-      <c r="G26" s="3">
-        <v>2056000</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>2225000</v>
+      </c>
+      <c r="J26" s="3">
         <v>661000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>268000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-483900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2999800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>109900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-374900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3163000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1790900</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1204000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1497000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-710000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1479000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2903000</v>
       </c>
-      <c r="G27" s="3">
-        <v>2025000</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>2194000</v>
+      </c>
+      <c r="J27" s="3">
         <v>585000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>206000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-540000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2931500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>75700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-396600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3109300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1796700</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1569,8 +1683,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1613,8 +1733,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1657,8 +1783,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1701,96 +1833,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="D32" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3">
         <v>-54000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-62000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-24000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>13000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-27000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>27600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-124800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>58800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>73000</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3">
         <v>108000</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1204000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1497000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-710000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1479000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2903000</v>
       </c>
-      <c r="G33" s="3">
-        <v>2025000</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>2194000</v>
+      </c>
+      <c r="J33" s="3">
         <v>585000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>206000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-540000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2931500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>75700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-396600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-3109300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1796700</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1833,101 +1983,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1204000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1497000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-710000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1479000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2903000</v>
       </c>
-      <c r="G35" s="3">
-        <v>2025000</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>2194000</v>
+      </c>
+      <c r="J35" s="3">
         <v>585000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>206000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-540000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2931500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>75700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-396600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-3109300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1796700</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1944,8 +2112,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1962,41 +2132,43 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2100000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1779000</v>
+      </c>
+      <c r="F41" s="3">
         <v>4298000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>5331000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>5258000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2674000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2623000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2481800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1534600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1572600</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2006,8 +2178,14 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2050,8 +2228,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2094,8 +2278,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2138,8 +2328,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2182,8 +2378,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2226,41 +2428,47 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>63337000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>65834000</v>
+      </c>
+      <c r="F47" s="3">
         <v>64676000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>63940000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>65884000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>68419000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>72810000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>73061400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>73253400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>74850100</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2270,8 +2478,14 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2314,8 +2528,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2358,8 +2578,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2402,8 +2628,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2446,41 +2678,47 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>385000</v>
+        <v>681000</v>
       </c>
       <c r="E52" s="3">
+        <v>755000</v>
+      </c>
+      <c r="F52" s="3">
+        <v>320000</v>
+      </c>
+      <c r="G52" s="3">
         <v>759000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>981000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1343000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>954000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1004600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>892500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1076100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,8 +2728,14 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2534,41 +2778,47 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>311058000</v>
+        <v>326980000</v>
       </c>
       <c r="E54" s="3">
+        <v>321464000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>314983000</v>
+      </c>
+      <c r="G54" s="3">
         <v>302970000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>316205000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>352641000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>375559000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>364372500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>366657400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>355242300</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2578,8 +2828,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2596,8 +2852,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2614,8 +2872,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2658,8 +2918,14 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2678,15 +2944,15 @@
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>1601700</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2702,41 +2968,47 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>293068000</v>
+        <v>309008000</v>
       </c>
       <c r="E59" s="3">
+        <v>303312000</v>
+      </c>
+      <c r="F59" s="3">
+        <v>296770000</v>
+      </c>
+      <c r="G59" s="3">
         <v>284311000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>297972000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>334931000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>357851000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>345753500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>348610300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>337134500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2746,8 +3018,14 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2790,41 +3068,47 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2633000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2632000</v>
+      </c>
+      <c r="F61" s="3">
         <v>2635000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2634000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2634000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2640000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2649000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1068500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>317700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>317700</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2834,8 +3118,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2878,8 +3168,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2922,8 +3218,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2966,8 +3268,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3010,41 +3318,47 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>302635000</v>
+        <v>318328000</v>
       </c>
       <c r="E66" s="3">
+        <v>312826000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>306337000</v>
+      </c>
+      <c r="G66" s="3">
         <v>293996000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>306642000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>343067000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>365165000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>354114300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>356266900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>345258400</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3054,8 +3368,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3072,8 +3392,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3116,8 +3438,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3160,16 +3488,22 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>533000</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>533000</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -3204,8 +3538,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3248,41 +3588,47 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8283000</v>
+        <v>5952000</v>
       </c>
       <c r="E72" s="3">
+        <v>4852000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>6403000</v>
+      </c>
+      <c r="G72" s="3">
         <v>9065000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>7635000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>4782000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>2809000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>2284600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2076800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2617900</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3292,8 +3638,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3336,8 +3688,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3380,8 +3738,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3424,41 +3788,47 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8423000</v>
+        <v>8119000</v>
       </c>
       <c r="E76" s="3">
+        <v>8105000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>8646000</v>
+      </c>
+      <c r="G76" s="3">
         <v>8974000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>9563000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>9574000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>10394000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>10258200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>10390500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>9983900</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3468,8 +3838,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3512,101 +3888,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1204000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1497000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-710000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1479000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2903000</v>
       </c>
-      <c r="G81" s="3">
-        <v>2025000</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>2194000</v>
+      </c>
+      <c r="J81" s="3">
         <v>585000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>206000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-540000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2931500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>75700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-396600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-3109300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1796700</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3623,8 +4017,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3667,8 +4063,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3711,8 +4113,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3755,8 +4163,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3799,8 +4213,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3843,8 +4263,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3887,52 +4313,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3745000</v>
+      </c>
+      <c r="F89" s="3">
         <v>2265000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>845000</v>
       </c>
-      <c r="F89" s="3">
-        <v>1236000</v>
-      </c>
-      <c r="G89" s="3">
-        <v>860000</v>
-      </c>
       <c r="H89" s="3">
+        <v>2096000</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-4883000</v>
+      </c>
+      <c r="J89" s="3">
         <v>2166400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1429200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>803400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1344000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1329700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1045800</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3949,8 +4387,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3993,8 +4433,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4037,8 +4483,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4081,52 +4533,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1508000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3843000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-146000</v>
       </c>
-      <c r="F94" s="3">
-        <v>2817000</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-202000</v>
-      </c>
       <c r="H94" s="3">
+        <v>2615000</v>
+      </c>
+      <c r="I94" s="3">
+        <v>1094000</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1920100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>44100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>2079600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1499600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-629800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-8939400</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4143,32 +4607,34 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>135000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-35000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-49000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
+        <v>-102000</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-50000</v>
       </c>
-      <c r="G96" s="3">
-        <v>-52000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-50000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -4187,8 +4653,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4231,8 +4703,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4275,8 +4753,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4319,52 +4803,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1063000</v>
+      </c>
+      <c r="F100" s="3">
         <v>538000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-624000</v>
       </c>
-      <c r="F100" s="3">
-        <v>-1467000</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-609000</v>
-      </c>
       <c r="H100" s="3">
+        <v>-2076000</v>
+      </c>
+      <c r="I100" s="3">
+        <v>3192000</v>
+      </c>
+      <c r="J100" s="3">
         <v>-78000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-484500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2921000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-290500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-129100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>530500</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4407,48 +4903,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-4190000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1040000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>75000</v>
       </c>
-      <c r="F102" s="3">
-        <v>2586000</v>
-      </c>
-      <c r="G102" s="3">
-        <v>49000</v>
-      </c>
       <c r="H102" s="3">
+        <v>2635000</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-563000</v>
+      </c>
+      <c r="J102" s="3">
         <v>148900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>947200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-38000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-446100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>570800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-7363100</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JXN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JXN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>JXN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,225 +665,237 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>434000</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
+        <v>2596000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>421000</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="3">
-        <v>3968000</v>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H8" s="3">
-        <v>6457000</v>
+        <v>2903000</v>
       </c>
       <c r="I8" s="3">
-        <v>2197000</v>
+        <v>6623000</v>
       </c>
       <c r="J8" s="3">
+        <v>2209000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1738000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1548000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>259500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5382200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>659600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>184100</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="3">
         <v>4935200</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E9" s="3">
         <v>164000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>172000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>-665000</v>
       </c>
-      <c r="G9" s="3">
-        <v>419000</v>
-      </c>
       <c r="H9" s="3">
-        <v>1028000</v>
+        <v>160000</v>
       </c>
       <c r="I9" s="3">
+        <v>135000</v>
+      </c>
+      <c r="J9" s="3">
         <v>137000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>-232000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>-188000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>-464700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>612600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>-504400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>-584300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>-876200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>838900</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>270000</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
+        <v>2441000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>257000</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="3">
-        <v>3549000</v>
+      <c r="G10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H10" s="3">
-        <v>5429000</v>
+        <v>2743000</v>
       </c>
       <c r="I10" s="3">
-        <v>2060000</v>
+        <v>6488000</v>
       </c>
       <c r="J10" s="3">
+        <v>2072000</v>
+      </c>
+      <c r="K10" s="3">
         <v>1970000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1736000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>724200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4769600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1164000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>768400</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3">
         <v>4096300</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -902,8 +914,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -952,8 +965,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1002,8 +1018,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1052,8 +1071,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1102,8 +1124,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1119,108 +1144,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-945000</v>
+      </c>
+      <c r="E17" s="3">
         <v>-1113000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1262000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>532000</v>
       </c>
-      <c r="G17" s="3">
-        <v>1966000</v>
-      </c>
       <c r="H17" s="3">
-        <v>2844000</v>
+        <v>408000</v>
       </c>
       <c r="I17" s="3">
+        <v>2531000</v>
+      </c>
+      <c r="J17" s="3">
         <v>-412000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>959000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1317000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>763700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1915500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>756600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>635200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1255700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2961300</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1547000</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
+        <v>3541000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1534000</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="3">
-        <v>2002000</v>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H18" s="3">
-        <v>3613000</v>
+        <v>2495000</v>
       </c>
       <c r="I18" s="3">
-        <v>2609000</v>
+        <v>4092000</v>
       </c>
       <c r="J18" s="3">
+        <v>2621000</v>
+      </c>
+      <c r="K18" s="3">
         <v>779000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>231000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-504200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3466700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-97000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-451100</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3">
         <v>1973900</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1239,85 +1271,89 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-24000</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
+        <v>10000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-11000</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="3">
-        <v>54000</v>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H20" s="3">
-        <v>62000</v>
+        <v>59000</v>
       </c>
       <c r="I20" s="3">
-        <v>24000</v>
+        <v>71000</v>
       </c>
       <c r="J20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-13000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>27000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-27600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>124800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-58800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-73000</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3">
         <v>-108000</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>3551000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1523000</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
-        <v>2056000</v>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>3675000</v>
+        <v>2554000</v>
       </c>
       <c r="I21" s="3">
+        <v>4163000</v>
+      </c>
+      <c r="J21" s="3">
         <v>2633000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>766000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1339,158 +1375,170 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E22" s="3">
         <v>58000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>43000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>40000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>29000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>24000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>20000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>18000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>31400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>41800</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3502000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1465000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2054000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-953000</v>
       </c>
-      <c r="G23" s="3">
-        <v>2027000</v>
-      </c>
       <c r="H23" s="3">
-        <v>3651000</v>
+        <v>2525000</v>
       </c>
       <c r="I23" s="3">
+        <v>4139000</v>
+      </c>
+      <c r="J23" s="3">
         <v>2613000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>748000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>252000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-538400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3585400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-163200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-531900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3620000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1824100</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>712000</v>
+      </c>
+      <c r="E24" s="3">
         <v>245000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-558000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-235000</v>
       </c>
-      <c r="G24" s="3">
-        <v>559000</v>
-      </c>
       <c r="H24" s="3">
-        <v>717000</v>
+        <v>657000</v>
       </c>
       <c r="I24" s="3">
+        <v>845000</v>
+      </c>
+      <c r="J24" s="3">
         <v>388000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>87000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-16000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-54500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>585600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-273100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-157000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-457000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>33200</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1539,108 +1587,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2790000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1220000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1496000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-718000</v>
       </c>
-      <c r="G26" s="3">
-        <v>1468000</v>
-      </c>
       <c r="H26" s="3">
-        <v>2934000</v>
+        <v>1868000</v>
       </c>
       <c r="I26" s="3">
+        <v>3294000</v>
+      </c>
+      <c r="J26" s="3">
         <v>2225000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>661000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>268000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-483900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2999800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>109900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-374900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3163000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1790900</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2762000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1204000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1497000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-710000</v>
       </c>
-      <c r="G27" s="3">
-        <v>1479000</v>
-      </c>
       <c r="H27" s="3">
-        <v>2903000</v>
+        <v>1879000</v>
       </c>
       <c r="I27" s="3">
+        <v>3263000</v>
+      </c>
+      <c r="J27" s="3">
         <v>2194000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>585000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>206000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-540000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2931500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>75700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-396600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3109300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1796700</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1689,8 +1746,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1739,8 +1799,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1789,8 +1852,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1839,108 +1905,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>24000</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
+        <v>-10000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>11000</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="3">
-        <v>-54000</v>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H32" s="3">
-        <v>-62000</v>
+        <v>-59000</v>
       </c>
       <c r="I32" s="3">
-        <v>-24000</v>
+        <v>-71000</v>
       </c>
       <c r="J32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="K32" s="3">
         <v>13000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-27000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>27600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-124800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>58800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>73000</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3">
         <v>108000</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2762000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1204000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1497000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-710000</v>
       </c>
-      <c r="G33" s="3">
-        <v>1479000</v>
-      </c>
       <c r="H33" s="3">
-        <v>2903000</v>
+        <v>1879000</v>
       </c>
       <c r="I33" s="3">
+        <v>3263000</v>
+      </c>
+      <c r="J33" s="3">
         <v>2194000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>585000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>206000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-540000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2931500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>75700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-396600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3109300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1796700</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1989,113 +2064,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2762000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1204000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1497000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-710000</v>
       </c>
-      <c r="G35" s="3">
-        <v>1479000</v>
-      </c>
       <c r="H35" s="3">
-        <v>2903000</v>
+        <v>1879000</v>
       </c>
       <c r="I35" s="3">
+        <v>3263000</v>
+      </c>
+      <c r="J35" s="3">
         <v>2194000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>585000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>206000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-540000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2931500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>75700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-396600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3109300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1796700</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2114,8 +2198,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2134,44 +2219,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2760000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2100000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1779000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4298000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5331000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5258000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2674000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2623000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2481800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1534600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1572600</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,8 +2270,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2234,8 +2323,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2284,8 +2376,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2334,8 +2429,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2384,8 +2482,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2434,44 +2535,47 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>60198000</v>
+      </c>
+      <c r="E47" s="3">
         <v>63337000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>65834000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>64676000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>63940000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>65884000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>68419000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>72810000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>73061400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>73253400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>74850100</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2484,8 +2588,11 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2534,8 +2641,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2584,8 +2694,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2634,8 +2747,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2684,44 +2800,47 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>632000</v>
+      </c>
+      <c r="E52" s="3">
         <v>681000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>755000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>320000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>759000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>981000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1343000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>954000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1004600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>892500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1076100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +2853,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2784,44 +2906,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>314534000</v>
+      </c>
+      <c r="E54" s="3">
         <v>326980000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>321464000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>314983000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>302970000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>316205000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>352641000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>375559000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>364372500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>366657400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>355242300</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2834,8 +2959,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2854,8 +2982,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2874,8 +3003,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2924,38 +3054,41 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
         <v>1601700</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2974,44 +3107,47 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>294455000</v>
+      </c>
+      <c r="E59" s="3">
         <v>309008000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>303312000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>296770000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>284311000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>297972000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>334931000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>357851000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>345753500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>348610300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>337134500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3024,8 +3160,11 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3074,43 +3213,46 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2635000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2633000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2632000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2635000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>2634000</v>
       </c>
       <c r="H61" s="3">
         <v>2634000</v>
       </c>
       <c r="I61" s="3">
+        <v>2634000</v>
+      </c>
+      <c r="J61" s="3">
         <v>2640000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2649000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1068500</v>
-      </c>
-      <c r="L61" s="3">
-        <v>317700</v>
       </c>
       <c r="M61" s="3">
         <v>317700</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>317700</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3124,8 +3266,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3174,8 +3319,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3224,8 +3372,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3274,8 +3425,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3324,44 +3478,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>305056000</v>
+      </c>
+      <c r="E66" s="3">
         <v>318328000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>312826000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>306337000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>293996000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>306642000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>343067000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>365165000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>354114300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>356266900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>345258400</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3374,8 +3531,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3394,8 +3554,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3444,8 +3605,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3494,8 +3658,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3506,7 +3673,7 @@
         <v>533000</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>533000</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -3544,8 +3711,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3594,44 +3764,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8661000</v>
+      </c>
+      <c r="E72" s="3">
         <v>5952000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4852000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6403000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9065000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>7635000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4782000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2809000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2284600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2076800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2617900</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3644,8 +3817,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3694,8 +3870,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3744,8 +3923,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3794,44 +3976,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8945000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8119000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8105000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8646000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8974000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9563000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9574000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10394000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10258200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10390500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9983900</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3844,8 +4029,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3894,113 +4082,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2762000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1204000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1497000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-710000</v>
       </c>
-      <c r="G81" s="3">
-        <v>1479000</v>
-      </c>
       <c r="H81" s="3">
-        <v>2903000</v>
+        <v>1879000</v>
       </c>
       <c r="I81" s="3">
+        <v>3263000</v>
+      </c>
+      <c r="J81" s="3">
         <v>2194000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>585000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>206000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-540000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2931500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>75700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-396600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3109300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1796700</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4019,8 +4216,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4069,8 +4267,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4119,8 +4320,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4169,8 +4373,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4219,8 +4426,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4269,8 +4479,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4319,58 +4532,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>1129000</v>
       </c>
       <c r="E89" s="3">
-        <v>-3745000</v>
+        <v>1086000</v>
       </c>
       <c r="F89" s="3">
+        <v>1461000</v>
+      </c>
+      <c r="G89" s="3">
         <v>2265000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>845000</v>
       </c>
-      <c r="H89" s="3">
-        <v>2096000</v>
-      </c>
       <c r="I89" s="3">
-        <v>-4883000</v>
+        <v>1236000</v>
       </c>
       <c r="J89" s="3">
+        <v>860000</v>
+      </c>
+      <c r="K89" s="3">
         <v>2166400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1429200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>803400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1344000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1329700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1045800</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4389,8 +4608,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4439,8 +4659,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4489,8 +4712,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4539,58 +4765,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>2119000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1508000</v>
+        <v>78000</v>
       </c>
       <c r="F94" s="3">
+        <v>-2882000</v>
+      </c>
+      <c r="G94" s="3">
         <v>-3843000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-146000</v>
       </c>
-      <c r="H94" s="3">
-        <v>2615000</v>
-      </c>
       <c r="I94" s="3">
-        <v>1094000</v>
+        <v>2817000</v>
       </c>
       <c r="J94" s="3">
+        <v>-202000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1920100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>44100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2079600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1499600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-629800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8939400</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4609,35 +4841,36 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-51000</v>
       </c>
       <c r="E96" s="3">
-        <v>135000</v>
+        <v>-50000</v>
       </c>
       <c r="F96" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-35000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-49000</v>
       </c>
-      <c r="H96" s="3">
-        <v>-102000</v>
-      </c>
       <c r="I96" s="3">
-        <v>-2000</v>
+        <v>-50000</v>
       </c>
       <c r="J96" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-50000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -4659,8 +4892,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4709,8 +4945,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4759,8 +4998,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4809,58 +5051,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>-2586000</v>
       </c>
       <c r="E100" s="3">
-        <v>1063000</v>
+        <v>-842000</v>
       </c>
       <c r="F100" s="3">
+        <v>-1099000</v>
+      </c>
+      <c r="G100" s="3">
         <v>538000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-624000</v>
       </c>
-      <c r="H100" s="3">
-        <v>-2076000</v>
-      </c>
       <c r="I100" s="3">
-        <v>3192000</v>
+        <v>-1494000</v>
       </c>
       <c r="J100" s="3">
+        <v>-582000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-78000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-484500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2921000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-290500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-129100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>530500</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4909,54 +5157,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>662000</v>
       </c>
       <c r="E102" s="3">
-        <v>-4190000</v>
+        <v>322000</v>
       </c>
       <c r="F102" s="3">
+        <v>-2520000</v>
+      </c>
+      <c r="G102" s="3">
         <v>-1040000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>75000</v>
       </c>
-      <c r="H102" s="3">
-        <v>2635000</v>
-      </c>
       <c r="I102" s="3">
-        <v>-563000</v>
+        <v>2586000</v>
       </c>
       <c r="J102" s="3">
+        <v>49000</v>
+      </c>
+      <c r="K102" s="3">
         <v>148900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>947200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-38000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-446100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>570800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7363100</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
